--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#UNIDEB\MatLab\FEA vTiM\Modular\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA09619-DEBA-42F2-A422-A8F49B178B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30500204-1B87-41A6-9BA5-47F05BB75124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="2430" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -1979,7 +1979,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-50000</v>
+        <v>50000</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2048,13 +2048,13 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>-20000</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-30000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2062,13 +2062,13 @@
         <v>63</v>
       </c>
       <c r="B6">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#UNIDEB\MatLab\FEA vTiM\Modular\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30500204-1B87-41A6-9BA5-47F05BB75124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB3A907-9950-4844-9CA7-D4A5BB4464F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="2430" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,7 +1888,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>62</v>
@@ -1921,7 +1921,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C65">
         <v>63</v>
@@ -1979,7 +1979,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
